--- a/DOCUMENTOS/MATERIAL AUXILIAR/Pinagem Placa.xlsx
+++ b/DOCUMENTOS/MATERIAL AUXILIAR/Pinagem Placa.xlsx
@@ -416,13 +416,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590707</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>124197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1024,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:O21"/>
+  <dimension ref="E4:O23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,43 +1039,18 @@
     <col min="15" max="15" width="6.42578125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="22"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="24"/>
-    </row>
-    <row r="4" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="4" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="22"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="20" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
@@ -1084,25 +1059,23 @@
     </row>
     <row r="6" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="7" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="E7" s="22"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="20" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
@@ -1110,181 +1083,208 @@
       <c r="O7" s="24"/>
     </row>
     <row r="8" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" s="16" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="20" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
-      <c r="O9" s="24" t="s">
-        <v>53</v>
-      </c>
+      <c r="O9" s="24"/>
     </row>
     <row r="10" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="22" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="20" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="24" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="22" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F13" s="19"/>
-      <c r="G13" s="19" t="s">
-        <v>5</v>
-      </c>
+      <c r="G13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="20" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="22" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="H15" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="20" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
-      <c r="O15" s="24"/>
+      <c r="O15" s="24" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="21" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
-      <c r="O17" s="24" t="s">
+      <c r="O17" s="24"/>
+    </row>
+    <row r="18" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="5:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
